--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07278899853914</v>
+        <v>1.569424333333333</v>
       </c>
       <c r="H2">
-        <v>1.07278899853914</v>
+        <v>4.708273</v>
       </c>
       <c r="I2">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="J2">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>22.4062433457511</v>
+        <v>1.085919666666667</v>
       </c>
       <c r="N2">
-        <v>22.4062433457511</v>
+        <v>3.257759</v>
       </c>
       <c r="O2">
-        <v>0.2838699704618731</v>
+        <v>0.01328373466302725</v>
       </c>
       <c r="P2">
-        <v>0.2838699704618731</v>
+        <v>0.01328373466302725</v>
       </c>
       <c r="Q2">
-        <v>24.03717135991259</v>
+        <v>1.704268748911889</v>
       </c>
       <c r="R2">
-        <v>24.03717135991259</v>
+        <v>15.338418740207</v>
       </c>
       <c r="S2">
-        <v>0.06706073770252415</v>
+        <v>0.003907169501338311</v>
       </c>
       <c r="T2">
-        <v>0.06706073770252415</v>
+        <v>0.003907169501338311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07278899853914</v>
+        <v>1.569424333333333</v>
       </c>
       <c r="H3">
-        <v>1.07278899853914</v>
+        <v>4.708273</v>
       </c>
       <c r="I3">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="J3">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.5251184650626</v>
+        <v>22.453096</v>
       </c>
       <c r="N3">
-        <v>56.5251184650626</v>
+        <v>67.35928799999999</v>
       </c>
       <c r="O3">
-        <v>0.7161300295381269</v>
+        <v>0.2746620940598846</v>
       </c>
       <c r="P3">
-        <v>0.7161300295381269</v>
+        <v>0.2746620940598846</v>
       </c>
       <c r="Q3">
-        <v>60.63952523044075</v>
+        <v>35.23843522106933</v>
       </c>
       <c r="R3">
-        <v>60.63952523044075</v>
+        <v>317.145916989624</v>
       </c>
       <c r="S3">
-        <v>0.1691767818681877</v>
+        <v>0.08078687088439128</v>
       </c>
       <c r="T3">
-        <v>0.1691767818681877</v>
+        <v>0.08078687088439127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.42153338519682</v>
+        <v>1.569424333333333</v>
       </c>
       <c r="H4">
-        <v>2.42153338519682</v>
+        <v>4.708273</v>
       </c>
       <c r="I4">
-        <v>0.5332428289771419</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="J4">
-        <v>0.5332428289771419</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>22.4062433457511</v>
+        <v>0.05304933333333334</v>
       </c>
       <c r="N4">
-        <v>22.4062433457511</v>
+        <v>0.159148</v>
       </c>
       <c r="O4">
-        <v>0.2838699704618731</v>
+        <v>0.0006489368317765253</v>
       </c>
       <c r="P4">
-        <v>0.2838699704618731</v>
+        <v>0.0006489368317765253</v>
       </c>
       <c r="Q4">
-        <v>54.25746629858038</v>
+        <v>0.08325691460044445</v>
       </c>
       <c r="R4">
-        <v>54.25746629858038</v>
+        <v>0.7493122314040001</v>
       </c>
       <c r="S4">
-        <v>0.1513716261107469</v>
+        <v>0.0001908729933058245</v>
       </c>
       <c r="T4">
-        <v>0.1513716261107469</v>
+        <v>0.0001908729933058245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.42153338519682</v>
+        <v>1.569424333333333</v>
       </c>
       <c r="H5">
-        <v>2.42153338519682</v>
+        <v>4.708273</v>
       </c>
       <c r="I5">
-        <v>0.5332428289771419</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="J5">
-        <v>0.5332428289771419</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.5251184650626</v>
+        <v>58.15600466666667</v>
       </c>
       <c r="N5">
-        <v>56.5251184650626</v>
+        <v>174.468014</v>
       </c>
       <c r="O5">
-        <v>0.7161300295381269</v>
+        <v>0.7114052344453117</v>
       </c>
       <c r="P5">
-        <v>0.7161300295381269</v>
+        <v>0.7114052344453117</v>
       </c>
       <c r="Q5">
-        <v>136.8774614653543</v>
+        <v>91.27144885331356</v>
       </c>
       <c r="R5">
-        <v>136.8774614653543</v>
+        <v>821.443039679822</v>
       </c>
       <c r="S5">
-        <v>0.381871202866395</v>
+        <v>0.2092469403844377</v>
       </c>
       <c r="T5">
-        <v>0.381871202866395</v>
+        <v>0.2092469403844377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.04682332626218</v>
+        <v>2.444496</v>
       </c>
       <c r="H6">
-        <v>1.04682332626218</v>
+        <v>7.333488</v>
       </c>
       <c r="I6">
-        <v>0.2305196514521462</v>
+        <v>0.4581324022613356</v>
       </c>
       <c r="J6">
-        <v>0.2305196514521462</v>
+        <v>0.4581324022613355</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>22.4062433457511</v>
+        <v>1.085919666666667</v>
       </c>
       <c r="N6">
-        <v>22.4062433457511</v>
+        <v>3.257759</v>
       </c>
       <c r="O6">
-        <v>0.2838699704618731</v>
+        <v>0.01328373466302725</v>
       </c>
       <c r="P6">
-        <v>0.2838699704618731</v>
+        <v>0.01328373466302725</v>
       </c>
       <c r="Q6">
-        <v>23.455378188239</v>
+        <v>2.654526281488</v>
       </c>
       <c r="R6">
-        <v>23.455378188239</v>
+        <v>23.890736533392</v>
       </c>
       <c r="S6">
-        <v>0.06543760664860201</v>
+        <v>0.006085709272174848</v>
       </c>
       <c r="T6">
-        <v>0.06543760664860201</v>
+        <v>0.006085709272174847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.444496</v>
+      </c>
+      <c r="H7">
+        <v>7.333488</v>
+      </c>
+      <c r="I7">
+        <v>0.4581324022613356</v>
+      </c>
+      <c r="J7">
+        <v>0.4581324022613355</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.453096</v>
+      </c>
+      <c r="N7">
+        <v>67.35928799999999</v>
+      </c>
+      <c r="O7">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="P7">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="Q7">
+        <v>54.88650335961599</v>
+      </c>
+      <c r="R7">
+        <v>493.9785302365439</v>
+      </c>
+      <c r="S7">
+        <v>0.1258316049617838</v>
+      </c>
+      <c r="T7">
+        <v>0.1258316049617838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.444496</v>
+      </c>
+      <c r="H8">
+        <v>7.333488</v>
+      </c>
+      <c r="I8">
+        <v>0.4581324022613356</v>
+      </c>
+      <c r="J8">
+        <v>0.4581324022613355</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.05304933333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.159148</v>
+      </c>
+      <c r="O8">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="P8">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="Q8">
+        <v>0.129678883136</v>
+      </c>
+      <c r="R8">
+        <v>1.167109948224</v>
+      </c>
+      <c r="S8">
+        <v>0.0002972989896576397</v>
+      </c>
+      <c r="T8">
+        <v>0.0002972989896576397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.444496</v>
+      </c>
+      <c r="H9">
+        <v>7.333488</v>
+      </c>
+      <c r="I9">
+        <v>0.4581324022613356</v>
+      </c>
+      <c r="J9">
+        <v>0.4581324022613355</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>58.15600466666667</v>
+      </c>
+      <c r="N9">
+        <v>174.468014</v>
+      </c>
+      <c r="O9">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="P9">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="Q9">
+        <v>142.162120783648</v>
+      </c>
+      <c r="R9">
+        <v>1279.459087052832</v>
+      </c>
+      <c r="S9">
+        <v>0.3259177890377193</v>
+      </c>
+      <c r="T9">
+        <v>0.3259177890377192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.165334</v>
+      </c>
+      <c r="H10">
+        <v>0.4960020000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="J10">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.085919666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.257759</v>
+      </c>
+      <c r="O10">
+        <v>0.01328373466302725</v>
+      </c>
+      <c r="P10">
+        <v>0.01328373466302725</v>
+      </c>
+      <c r="Q10">
+        <v>0.1795394421686667</v>
+      </c>
+      <c r="R10">
+        <v>1.615854979518</v>
+      </c>
+      <c r="S10">
+        <v>0.0004116082238652697</v>
+      </c>
+      <c r="T10">
+        <v>0.0004116082238652696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.04682332626218</v>
-      </c>
-      <c r="H7">
-        <v>1.04682332626218</v>
-      </c>
-      <c r="I7">
-        <v>0.2305196514521462</v>
-      </c>
-      <c r="J7">
-        <v>0.2305196514521462</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>56.5251184650626</v>
-      </c>
-      <c r="N7">
-        <v>56.5251184650626</v>
-      </c>
-      <c r="O7">
-        <v>0.7161300295381269</v>
-      </c>
-      <c r="P7">
-        <v>0.7161300295381269</v>
-      </c>
-      <c r="Q7">
-        <v>59.1718125289606</v>
-      </c>
-      <c r="R7">
-        <v>59.1718125289606</v>
-      </c>
-      <c r="S7">
-        <v>0.1650820448035442</v>
-      </c>
-      <c r="T7">
-        <v>0.1650820448035442</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.165334</v>
+      </c>
+      <c r="H11">
+        <v>0.4960020000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="J11">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.453096</v>
+      </c>
+      <c r="N11">
+        <v>67.35928799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="P11">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="Q11">
+        <v>3.712260174064</v>
+      </c>
+      <c r="R11">
+        <v>33.410341566576</v>
+      </c>
+      <c r="S11">
+        <v>0.008510647010570511</v>
+      </c>
+      <c r="T11">
+        <v>0.008510647010570508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.165334</v>
+      </c>
+      <c r="H12">
+        <v>0.4960020000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="J12">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05304933333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.159148</v>
+      </c>
+      <c r="O12">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="P12">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="Q12">
+        <v>0.008770858477333334</v>
+      </c>
+      <c r="R12">
+        <v>0.07893772629600002</v>
+      </c>
+      <c r="S12">
+        <v>2.010787956129043E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.010787956129042E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.165334</v>
+      </c>
+      <c r="H13">
+        <v>0.4960020000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="J13">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>58.15600466666667</v>
+      </c>
+      <c r="N13">
+        <v>174.468014</v>
+      </c>
+      <c r="O13">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="P13">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="Q13">
+        <v>9.615164875558667</v>
+      </c>
+      <c r="R13">
+        <v>86.53648388002802</v>
+      </c>
+      <c r="S13">
+        <v>0.02204351806374904</v>
+      </c>
+      <c r="T13">
+        <v>0.02204351806374904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.156530666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.469592</v>
+      </c>
+      <c r="I14">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="J14">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.085919666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.257759</v>
+      </c>
+      <c r="O14">
+        <v>0.01328373466302725</v>
+      </c>
+      <c r="P14">
+        <v>0.01328373466302725</v>
+      </c>
+      <c r="Q14">
+        <v>1.255899396036444</v>
+      </c>
+      <c r="R14">
+        <v>11.303094564328</v>
+      </c>
+      <c r="S14">
+        <v>0.002879247665648825</v>
+      </c>
+      <c r="T14">
+        <v>0.002879247665648825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.156530666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.469592</v>
+      </c>
+      <c r="I15">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="J15">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.453096</v>
+      </c>
+      <c r="N15">
+        <v>67.35928799999999</v>
+      </c>
+      <c r="O15">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="P15">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="Q15">
+        <v>25.96769408561066</v>
+      </c>
+      <c r="R15">
+        <v>233.709246770496</v>
+      </c>
+      <c r="S15">
+        <v>0.059532971203139</v>
+      </c>
+      <c r="T15">
+        <v>0.059532971203139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.156530666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.469592</v>
+      </c>
+      <c r="I16">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="J16">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05304933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.159148</v>
+      </c>
+      <c r="O16">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="P16">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="Q16">
+        <v>0.06135318084622222</v>
+      </c>
+      <c r="R16">
+        <v>0.552178627616</v>
+      </c>
+      <c r="S16">
+        <v>0.0001406569692517707</v>
+      </c>
+      <c r="T16">
+        <v>0.0001406569692517707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.156530666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.469592</v>
+      </c>
+      <c r="I17">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="J17">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>58.15600466666667</v>
+      </c>
+      <c r="N17">
+        <v>174.468014</v>
+      </c>
+      <c r="O17">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="P17">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="Q17">
+        <v>67.25920284780977</v>
+      </c>
+      <c r="R17">
+        <v>605.3328256302881</v>
+      </c>
+      <c r="S17">
+        <v>0.1541969869594057</v>
+      </c>
+      <c r="T17">
+        <v>0.1541969869594057</v>
       </c>
     </row>
   </sheetData>
